--- a/state_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
+++ b/state_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
         <v>0.0055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0064342250932441</v>
+        <v>0.0064757569246722</v>
       </c>
       <c r="H4" t="n">
         <v>0.029</v>
@@ -809,7 +809,7 @@
         <v>0.0055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0064342250932441</v>
+        <v>0.0064757569246722</v>
       </c>
       <c r="H5" t="n">
         <v>0.029</v>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.00115</v>
+        <v>0.0013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004241754854954</v>
+        <v>0.0044187328878773</v>
       </c>
       <c r="H7" t="n">
         <v>0.0484126837941841</v>
@@ -978,10 +978,10 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.00137</v>
+        <v>0.00165</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00545</v>
+        <v>0.00558</v>
       </c>
       <c r="N7" t="n">
         <v>0.01693</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.00115</v>
+        <v>0.0013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004241754854954</v>
+        <v>0.0044187328878773</v>
       </c>
       <c r="H8" t="n">
         <v>0.0484126837941841</v>
@@ -1059,10 +1059,10 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.00137</v>
+        <v>0.00165</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00545</v>
+        <v>0.00558</v>
       </c>
       <c r="N8" t="n">
         <v>0.01693</v>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5415</v>
+        <v>0.5413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.588293103448276</v>
+        <v>0.58831724137931</v>
       </c>
       <c r="H12" t="n">
-        <v>1.623</v>
+        <v>1.6235</v>
       </c>
       <c r="I12" t="n">
         <v>1.1254</v>
@@ -1381,7 +1381,7 @@
         <v>0.95404</v>
       </c>
       <c r="N12" t="n">
-        <v>1.09116</v>
+        <v>1.09119</v>
       </c>
       <c r="O12" t="n">
         <v>1829637.96</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5415</v>
+        <v>0.5413</v>
       </c>
       <c r="G13" t="n">
-        <v>0.588293103448276</v>
+        <v>0.58831724137931</v>
       </c>
       <c r="H13" t="n">
-        <v>1.623</v>
+        <v>1.6235</v>
       </c>
       <c r="I13" t="n">
         <v>1.1254</v>
@@ -1458,7 +1458,7 @@
         <v>0.95404</v>
       </c>
       <c r="N13" t="n">
-        <v>1.09116</v>
+        <v>1.09119</v>
       </c>
       <c r="O13" t="n">
         <v>1829637.96</v>
@@ -1672,7 +1672,7 @@
         <v>0.01</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0195391489981414</v>
+        <v>0.0195407681857319</v>
       </c>
       <c r="H16" t="n">
         <v>0.128</v>
@@ -1749,7 +1749,7 @@
         <v>0.01</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0195391489981414</v>
+        <v>0.0195407681857319</v>
       </c>
       <c r="H17" t="n">
         <v>0.128</v>
@@ -1988,7 +1988,7 @@
         <v>0.005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0053539959389579</v>
+        <v>0.0054279956689514</v>
       </c>
       <c r="H20" t="n">
         <v>0.021</v>
@@ -2069,7 +2069,7 @@
         <v>0.005</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0053539959389579</v>
+        <v>0.0054279956689514</v>
       </c>
       <c r="H21" t="n">
         <v>0.021</v>
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0013</v>
+        <v>0.00163</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0044687919413551</v>
+        <v>0.0047053875790438</v>
       </c>
       <c r="H23" t="n">
         <v>0.0501027713572412</v>
@@ -2238,13 +2238,13 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00143</v>
+        <v>0.00169</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00699</v>
+        <v>0.00753</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01583</v>
+        <v>0.0163</v>
       </c>
       <c r="O23" t="n">
         <v>1829637.96</v>
@@ -2305,10 +2305,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0013</v>
+        <v>0.00163</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0044687919413551</v>
+        <v>0.0047053875790438</v>
       </c>
       <c r="H24" t="n">
         <v>0.0501027713572412</v>
@@ -2319,13 +2319,13 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00143</v>
+        <v>0.00169</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00699</v>
+        <v>0.00753</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01583</v>
+        <v>0.0163</v>
       </c>
       <c r="O24" t="n">
         <v>1829637.96</v>
@@ -2624,10 +2624,10 @@
         <v>0.517</v>
       </c>
       <c r="G28" t="n">
-        <v>0.573135593220339</v>
+        <v>0.573149152542373</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623</v>
+        <v>1.6235</v>
       </c>
       <c r="I28" t="n">
         <v>1.1252</v>
@@ -2638,7 +2638,7 @@
         <v>0.345</v>
       </c>
       <c r="M28" t="n">
-        <v>0.91129</v>
+        <v>0.91145</v>
       </c>
       <c r="N28" t="n">
         <v>1.08628</v>
@@ -2701,10 +2701,10 @@
         <v>0.517</v>
       </c>
       <c r="G29" t="n">
-        <v>0.573135593220339</v>
+        <v>0.573149152542373</v>
       </c>
       <c r="H29" t="n">
-        <v>1.623</v>
+        <v>1.6235</v>
       </c>
       <c r="I29" t="n">
         <v>1.1252</v>
@@ -2715,7 +2715,7 @@
         <v>0.345</v>
       </c>
       <c r="M29" t="n">
-        <v>0.91129</v>
+        <v>0.91145</v>
       </c>
       <c r="N29" t="n">
         <v>1.08628</v>
@@ -2932,7 +2932,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0186825532524102</v>
+        <v>0.0186841449961432</v>
       </c>
       <c r="H32" t="n">
         <v>0.128</v>
@@ -3009,7 +3009,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0186825532524102</v>
+        <v>0.0186841449961432</v>
       </c>
       <c r="H33" t="n">
         <v>0.128</v>
@@ -3248,7 +3248,7 @@
         <v>0.004</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004648647808522</v>
+        <v>0.0047196939159797</v>
       </c>
       <c r="H36" t="n">
         <v>0.021</v>
@@ -3259,7 +3259,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.00314</v>
+        <v>0.00327</v>
       </c>
       <c r="M36" t="n">
         <v>0.00664</v>
@@ -3329,7 +3329,7 @@
         <v>0.004</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004648647808522</v>
+        <v>0.0047196939159797</v>
       </c>
       <c r="H37" t="n">
         <v>0.021</v>
@@ -3340,7 +3340,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.00314</v>
+        <v>0.00327</v>
       </c>
       <c r="M37" t="n">
         <v>0.00664</v>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.00149</v>
+        <v>0.00169</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00467656862233</v>
+        <v>0.0049234045477168</v>
       </c>
       <c r="H39" t="n">
         <v>0.0501027713572412</v>
@@ -3498,13 +3498,13 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.00235</v>
+        <v>0.00263</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00715</v>
+        <v>0.00784</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01403</v>
+        <v>0.01544</v>
       </c>
       <c r="O39" t="n">
         <v>1829637.96</v>
@@ -3565,10 +3565,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.00149</v>
+        <v>0.00169</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00467656862233</v>
+        <v>0.0049234045477168</v>
       </c>
       <c r="H40" t="n">
         <v>0.0501027713572412</v>
@@ -3579,13 +3579,13 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.00235</v>
+        <v>0.00263</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00715</v>
+        <v>0.00784</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01403</v>
+        <v>0.01544</v>
       </c>
       <c r="O40" t="n">
         <v>1829637.96</v>
@@ -3884,7 +3884,7 @@
         <v>0.463</v>
       </c>
       <c r="G44" t="n">
-        <v>0.506155172413793</v>
+        <v>0.5061637931034479</v>
       </c>
       <c r="H44" t="n">
         <v>1.123</v>
@@ -3961,7 +3961,7 @@
         <v>0.463</v>
       </c>
       <c r="G45" t="n">
-        <v>0.506155172413793</v>
+        <v>0.5061637931034479</v>
       </c>
       <c r="H45" t="n">
         <v>1.123</v>
@@ -4192,7 +4192,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0189383288742419</v>
+        <v>0.0189393235973336</v>
       </c>
       <c r="H48" t="n">
         <v>0.128</v>
@@ -4269,7 +4269,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0189383288742419</v>
+        <v>0.0189393235973336</v>
       </c>
       <c r="H49" t="n">
         <v>0.128</v>
@@ -4505,10 +4505,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.00357</v>
+        <v>0.00383</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0044307304545186</v>
+        <v>0.0044911621503161</v>
       </c>
       <c r="H52" t="n">
         <v>0.021</v>
@@ -4586,10 +4586,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.00357</v>
+        <v>0.00383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0044307304545186</v>
+        <v>0.0044911621503161</v>
       </c>
       <c r="H53" t="n">
         <v>0.021</v>
@@ -4747,7 +4747,7 @@
         <v>0.00264</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0057229736642567</v>
+        <v>0.0059385811682667</v>
       </c>
       <c r="H55" t="n">
         <v>0.0501027713572412</v>
@@ -4758,13 +4758,13 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00318</v>
+        <v>0.00339</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00812</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01914</v>
+        <v>0.0194</v>
       </c>
       <c r="O55" t="n">
         <v>1829637.96</v>
@@ -4828,7 +4828,7 @@
         <v>0.00264</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0057229736642567</v>
+        <v>0.0059385811682667</v>
       </c>
       <c r="H56" t="n">
         <v>0.0501027713572412</v>
@@ -4839,13 +4839,13 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.00318</v>
+        <v>0.00339</v>
       </c>
       <c r="M56" t="n">
-        <v>0.00812</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01914</v>
+        <v>0.0194</v>
       </c>
       <c r="O56" t="n">
         <v>1829637.96</v>
@@ -5144,13 +5144,13 @@
         <v>0.3935</v>
       </c>
       <c r="G60" t="n">
-        <v>0.456793103448276</v>
+        <v>0.456784482758621</v>
       </c>
       <c r="H60" t="n">
         <v>1.123</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9562</v>
+        <v>0.9559</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -5221,13 +5221,13 @@
         <v>0.3935</v>
       </c>
       <c r="G61" t="n">
-        <v>0.456793103448276</v>
+        <v>0.456784482758621</v>
       </c>
       <c r="H61" t="n">
         <v>1.123</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9562</v>
+        <v>0.9559</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -5452,7 +5452,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0229210874949315</v>
+        <v>0.0229220822180233</v>
       </c>
       <c r="H64" t="n">
         <v>0.2</v>
@@ -5529,7 +5529,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0229210874949315</v>
+        <v>0.0229220822180233</v>
       </c>
       <c r="H65" t="n">
         <v>0.2</v>
@@ -5768,7 +5768,7 @@
         <v>0.004</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0047004231955614</v>
+        <v>0.0047516279163665</v>
       </c>
       <c r="H68" t="n">
         <v>0.014</v>
@@ -5779,7 +5779,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.003</v>
+        <v>0.00301</v>
       </c>
       <c r="M68" t="n">
         <v>0.007</v>
@@ -5849,7 +5849,7 @@
         <v>0.004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0047004231955614</v>
+        <v>0.0047516279163665</v>
       </c>
       <c r="H69" t="n">
         <v>0.014</v>
@@ -5860,7 +5860,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.003</v>
+        <v>0.00301</v>
       </c>
       <c r="M69" t="n">
         <v>0.007</v>
@@ -6004,10 +6004,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.003</v>
+        <v>0.00316</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0060151398373409</v>
+        <v>0.0061479423804353</v>
       </c>
       <c r="H71" t="n">
         <v>0.0501027713572412</v>
@@ -6018,13 +6018,13 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.00391</v>
+        <v>0.00425</v>
       </c>
       <c r="M71" t="n">
-        <v>0.00829</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01361</v>
+        <v>0.01398</v>
       </c>
       <c r="O71" t="n">
         <v>1829637.96</v>
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.003</v>
+        <v>0.00316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0060151398373409</v>
+        <v>0.0061479423804353</v>
       </c>
       <c r="H72" t="n">
         <v>0.0501027713572412</v>
@@ -6099,13 +6099,13 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.00391</v>
+        <v>0.00425</v>
       </c>
       <c r="M72" t="n">
-        <v>0.00829</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01361</v>
+        <v>0.01398</v>
       </c>
       <c r="O72" t="n">
         <v>1829637.96</v>
@@ -6404,10 +6404,10 @@
         <v>0.3955</v>
       </c>
       <c r="G76" t="n">
-        <v>0.448431034482759</v>
+        <v>0.448439655172414</v>
       </c>
       <c r="H76" t="n">
-        <v>0.965</v>
+        <v>0.9645</v>
       </c>
       <c r="I76" t="n">
         <v>0.8638</v>
@@ -6415,7 +6415,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.346</v>
+        <v>0.34575</v>
       </c>
       <c r="M76" t="n">
         <v>0.7932</v>
@@ -6481,10 +6481,10 @@
         <v>0.3955</v>
       </c>
       <c r="G77" t="n">
-        <v>0.448431034482759</v>
+        <v>0.448439655172414</v>
       </c>
       <c r="H77" t="n">
-        <v>0.965</v>
+        <v>0.9645</v>
       </c>
       <c r="I77" t="n">
         <v>0.8638</v>
@@ -6492,7 +6492,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.346</v>
+        <v>0.34575</v>
       </c>
       <c r="M77" t="n">
         <v>0.7932</v>
@@ -6840,6 +6840,1266 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4658</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.52625</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9.69875</v>
+      </c>
+      <c r="H83" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N83" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0049264041158838</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0049264041158838</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>109.57</v>
+      </c>
+      <c r="G86" t="n">
+        <v>107.914</v>
+      </c>
+      <c r="H86" t="n">
+        <v>115</v>
+      </c>
+      <c r="I86" t="n">
+        <v>115</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>109.57</v>
+      </c>
+      <c r="M86" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="N86" t="n">
+        <v>115</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.005996036292652</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0501027713572412</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.02534</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.005996036292652</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0501027713572412</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.02534</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.434745762711864</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.8493000000000001</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.74999</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.84478</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.434745762711864</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.8493000000000001</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.74999</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.84478</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>6.258</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6.1476</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>6.258</v>
+      </c>
+      <c r="M91" t="n">
+        <v>6.6955</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.447313559322034</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.86315</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0.34575</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.75784</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.85468</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.447313559322034</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.86315</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0.34575</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.75784</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.85468</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.595932203389831</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9255</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8441</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.595932203389831</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9255</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8441</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0289491525423729</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.10765</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.04247</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.08892</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Hukanui</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0289491525423729</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.10765</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.04247</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.08892</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1829637.96</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Mana_8b</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
+++ b/state_results/Rivers/MangatainokaatHukanui_92890ae869.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +630,7 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>0.586</v>
@@ -657,16 +660,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -683,7 +686,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>2.85</v>
@@ -698,7 +701,7 @@
         <v>41.4</v>
       </c>
       <c r="L3">
-        <v>4.85</v>
+        <v>3.35</v>
       </c>
       <c r="M3">
         <v>17.33</v>
@@ -713,19 +716,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -742,13 +745,13 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0.0055</v>
       </c>
       <c r="G4">
-        <v>0.0064757569246722</v>
+        <v>0.0064783419298581</v>
       </c>
       <c r="H4">
         <v>0.029</v>
@@ -757,7 +760,7 @@
         <v>0.0168</v>
       </c>
       <c r="L4">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M4">
         <v>0.008999999999999999</v>
@@ -772,19 +775,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -801,13 +804,13 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>0.0055</v>
       </c>
       <c r="G5">
-        <v>0.0064757569246722</v>
+        <v>0.0064783419298581</v>
       </c>
       <c r="H5">
         <v>0.029</v>
@@ -816,7 +819,7 @@
         <v>0.0168</v>
       </c>
       <c r="L5">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M5">
         <v>0.008999999999999999</v>
@@ -831,19 +834,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -860,7 +863,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>109</v>
@@ -890,16 +893,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -916,13 +919,13 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0.0013</v>
       </c>
       <c r="G7">
-        <v>0.0044187328878773</v>
+        <v>0.004425470722265</v>
       </c>
       <c r="H7">
         <v>0.0484126837941841</v>
@@ -931,10 +934,10 @@
         <v>0.02154</v>
       </c>
       <c r="L7">
-        <v>0.00165</v>
+        <v>0.00144</v>
       </c>
       <c r="M7">
-        <v>0.00558</v>
+        <v>0.00559</v>
       </c>
       <c r="N7">
         <v>0.01693</v>
@@ -946,19 +949,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -975,13 +978,13 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0.0013</v>
       </c>
       <c r="G8">
-        <v>0.0044187328878773</v>
+        <v>0.004425470722265</v>
       </c>
       <c r="H8">
         <v>0.0484126837941841</v>
@@ -990,10 +993,10 @@
         <v>0.02154</v>
       </c>
       <c r="L8">
-        <v>0.00165</v>
+        <v>0.00144</v>
       </c>
       <c r="M8">
-        <v>0.00558</v>
+        <v>0.00559</v>
       </c>
       <c r="N8">
         <v>0.01693</v>
@@ -1005,19 +1008,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1034,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0.5352</v>
@@ -1049,7 +1052,7 @@
         <v>1.11332</v>
       </c>
       <c r="L9">
-        <v>0.3175</v>
+        <v>0.448</v>
       </c>
       <c r="M9">
         <v>0.9452</v>
@@ -1064,19 +1067,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1093,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>0.5352</v>
@@ -1108,7 +1111,7 @@
         <v>1.11332</v>
       </c>
       <c r="L10">
-        <v>0.3175</v>
+        <v>0.448</v>
       </c>
       <c r="M10">
         <v>0.9452</v>
@@ -1123,19 +1126,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1152,7 +1155,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>6.329</v>
@@ -1182,16 +1185,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1205,7 +1208,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>0.5413</v>
@@ -1220,7 +1223,7 @@
         <v>1.1254</v>
       </c>
       <c r="L12">
-        <v>0.3235</v>
+        <v>0.463</v>
       </c>
       <c r="M12">
         <v>0.95404</v>
@@ -1235,19 +1238,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1261,7 +1264,7 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>0.5413</v>
@@ -1276,7 +1279,7 @@
         <v>1.1254</v>
       </c>
       <c r="L13">
-        <v>0.3235</v>
+        <v>0.463</v>
       </c>
       <c r="M13">
         <v>0.95404</v>
@@ -1291,19 +1294,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1317,7 +1320,7 @@
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>0.6795</v>
@@ -1332,7 +1335,7 @@
         <v>1.206</v>
       </c>
       <c r="L14">
-        <v>0.495</v>
+        <v>0.5785</v>
       </c>
       <c r="M14">
         <v>1.02</v>
@@ -1347,19 +1350,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1373,7 +1376,7 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>0.6795</v>
@@ -1388,7 +1391,7 @@
         <v>1.206</v>
       </c>
       <c r="L15">
-        <v>0.495</v>
+        <v>0.5785</v>
       </c>
       <c r="M15">
         <v>1.02</v>
@@ -1403,19 +1406,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1429,13 +1432,13 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>0.01</v>
       </c>
       <c r="G16">
-        <v>0.0195407681857319</v>
+        <v>0.0195448340557344</v>
       </c>
       <c r="H16">
         <v>0.128</v>
@@ -1444,7 +1447,7 @@
         <v>0.075</v>
       </c>
       <c r="L16">
-        <v>0.008500000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="M16">
         <v>0.0242</v>
@@ -1459,19 +1462,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1485,13 +1488,13 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>0.0195407681857319</v>
+        <v>0.0195448340557344</v>
       </c>
       <c r="H17">
         <v>0.128</v>
@@ -1500,7 +1503,7 @@
         <v>0.075</v>
       </c>
       <c r="L17">
-        <v>0.008500000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="M17">
         <v>0.0242</v>
@@ -1515,19 +1518,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1544,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>0.521</v>
@@ -1574,16 +1577,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1600,7 +1603,7 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>4.2</v>
@@ -1615,7 +1618,7 @@
         <v>26.925</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
         <v>17.5</v>
@@ -1630,19 +1633,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1659,13 +1662,13 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>0.005</v>
       </c>
       <c r="G20">
-        <v>0.0054279956689514</v>
+        <v>0.0054374266288025</v>
       </c>
       <c r="H20">
         <v>0.021</v>
@@ -1689,19 +1692,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1718,13 +1721,13 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>0.005</v>
       </c>
       <c r="G21">
-        <v>0.0054279956689514</v>
+        <v>0.0054374266288025</v>
       </c>
       <c r="H21">
         <v>0.021</v>
@@ -1748,19 +1751,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1777,7 +1780,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>111</v>
@@ -1807,16 +1810,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1833,13 +1836,13 @@
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>0.00163</v>
+        <v>0.00162</v>
       </c>
       <c r="G23">
-        <v>0.0047053875790438</v>
+        <v>0.0047236762495029</v>
       </c>
       <c r="H23">
         <v>0.0501027713572412</v>
@@ -1848,13 +1851,13 @@
         <v>0.02091</v>
       </c>
       <c r="L23">
-        <v>0.00169</v>
+        <v>0.0017</v>
       </c>
       <c r="M23">
-        <v>0.00753</v>
+        <v>0.00761</v>
       </c>
       <c r="N23">
-        <v>0.0163</v>
+        <v>0.01643</v>
       </c>
       <c r="O23">
         <v>1829637.96</v>
@@ -1863,19 +1866,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1892,13 +1895,13 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24">
-        <v>0.00163</v>
+        <v>0.00162</v>
       </c>
       <c r="G24">
-        <v>0.0047053875790438</v>
+        <v>0.0047236762495029</v>
       </c>
       <c r="H24">
         <v>0.0501027713572412</v>
@@ -1907,13 +1910,13 @@
         <v>0.02091</v>
       </c>
       <c r="L24">
-        <v>0.00169</v>
+        <v>0.0017</v>
       </c>
       <c r="M24">
-        <v>0.00753</v>
+        <v>0.00761</v>
       </c>
       <c r="N24">
-        <v>0.0163</v>
+        <v>0.01643</v>
       </c>
       <c r="O24">
         <v>1829637.96</v>
@@ -1922,19 +1925,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1951,7 +1954,7 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>0.51</v>
@@ -1966,7 +1969,7 @@
         <v>1.11221</v>
       </c>
       <c r="L25">
-        <v>0.337</v>
+        <v>0.388</v>
       </c>
       <c r="M25">
         <v>0.90359</v>
@@ -1981,19 +1984,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2010,7 +2013,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>0.51</v>
@@ -2025,7 +2028,7 @@
         <v>1.11221</v>
       </c>
       <c r="L26">
-        <v>0.337</v>
+        <v>0.388</v>
       </c>
       <c r="M26">
         <v>0.90359</v>
@@ -2040,19 +2043,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2069,7 +2072,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>6.1</v>
@@ -2099,16 +2102,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2122,7 +2125,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>0.517</v>
@@ -2137,7 +2140,7 @@
         <v>1.1252</v>
       </c>
       <c r="L28">
-        <v>0.345</v>
+        <v>0.4155</v>
       </c>
       <c r="M28">
         <v>0.91145</v>
@@ -2152,19 +2155,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2178,7 +2181,7 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>0.517</v>
@@ -2193,7 +2196,7 @@
         <v>1.1252</v>
       </c>
       <c r="L29">
-        <v>0.345</v>
+        <v>0.4155</v>
       </c>
       <c r="M29">
         <v>0.91145</v>
@@ -2208,19 +2211,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2234,7 +2237,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>0.68</v>
@@ -2249,7 +2252,7 @@
         <v>1.1757</v>
       </c>
       <c r="L30">
-        <v>0.495</v>
+        <v>0.54</v>
       </c>
       <c r="M30">
         <v>0.9788</v>
@@ -2264,19 +2267,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2290,7 +2293,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>0.68</v>
@@ -2305,7 +2308,7 @@
         <v>1.1757</v>
       </c>
       <c r="L31">
-        <v>0.495</v>
+        <v>0.54</v>
       </c>
       <c r="M31">
         <v>0.9788</v>
@@ -2320,19 +2323,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2346,13 +2349,13 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>0.008999999999999999</v>
       </c>
       <c r="G32">
-        <v>0.0186841449961432</v>
+        <v>0.0186881419530949</v>
       </c>
       <c r="H32">
         <v>0.128</v>
@@ -2361,7 +2364,7 @@
         <v>0.07475</v>
       </c>
       <c r="L32">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M32">
         <v>0.02335</v>
@@ -2376,19 +2379,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2402,13 +2405,13 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>0.008999999999999999</v>
       </c>
       <c r="G33">
-        <v>0.0186841449961432</v>
+        <v>0.0186881419530949</v>
       </c>
       <c r="H33">
         <v>0.128</v>
@@ -2417,7 +2420,7 @@
         <v>0.07475</v>
       </c>
       <c r="L33">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M33">
         <v>0.02335</v>
@@ -2432,19 +2435,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2461,7 +2464,7 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>0.509</v>
@@ -2491,16 +2494,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2517,7 +2520,7 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>4.65</v>
@@ -2532,7 +2535,7 @@
         <v>26.95</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="M35">
         <v>17.33</v>
@@ -2547,19 +2550,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2576,13 +2579,13 @@
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>0.004</v>
       </c>
       <c r="G36">
-        <v>0.0047196939159797</v>
+        <v>0.0047292658862656</v>
       </c>
       <c r="H36">
         <v>0.021</v>
@@ -2591,7 +2594,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="L36">
-        <v>0.00327</v>
+        <v>0.00369</v>
       </c>
       <c r="M36">
         <v>0.00664</v>
@@ -2606,19 +2609,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2635,13 +2638,13 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>0.004</v>
       </c>
       <c r="G37">
-        <v>0.0047196939159797</v>
+        <v>0.0047292658862656</v>
       </c>
       <c r="H37">
         <v>0.021</v>
@@ -2650,7 +2653,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="L37">
-        <v>0.00327</v>
+        <v>0.00369</v>
       </c>
       <c r="M37">
         <v>0.00664</v>
@@ -2665,19 +2668,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2694,7 +2697,7 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>108</v>
@@ -2724,16 +2727,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2750,13 +2753,13 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39">
-        <v>0.00169</v>
+        <v>0.0017</v>
       </c>
       <c r="G39">
-        <v>0.0049234045477168</v>
+        <v>0.0049418669606729</v>
       </c>
       <c r="H39">
         <v>0.0501027713572412</v>
@@ -2765,13 +2768,13 @@
         <v>0.02169</v>
       </c>
       <c r="L39">
-        <v>0.00263</v>
+        <v>0.00269</v>
       </c>
       <c r="M39">
         <v>0.00784</v>
       </c>
       <c r="N39">
-        <v>0.01544</v>
+        <v>0.01557</v>
       </c>
       <c r="O39">
         <v>1829637.96</v>
@@ -2780,19 +2783,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2809,13 +2812,13 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40">
-        <v>0.00169</v>
+        <v>0.0017</v>
       </c>
       <c r="G40">
-        <v>0.0049234045477168</v>
+        <v>0.0049418669606729</v>
       </c>
       <c r="H40">
         <v>0.0501027713572412</v>
@@ -2824,13 +2827,13 @@
         <v>0.02169</v>
       </c>
       <c r="L40">
-        <v>0.00263</v>
+        <v>0.00269</v>
       </c>
       <c r="M40">
         <v>0.00784</v>
       </c>
       <c r="N40">
-        <v>0.01544</v>
+        <v>0.01557</v>
       </c>
       <c r="O40">
         <v>1829637.96</v>
@@ -2839,19 +2842,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2868,7 +2871,7 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>0.448</v>
@@ -2883,7 +2886,7 @@
         <v>1.022</v>
       </c>
       <c r="L41">
-        <v>0.325</v>
+        <v>0.342</v>
       </c>
       <c r="M41">
         <v>0.80056</v>
@@ -2898,19 +2901,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2927,7 +2930,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>0.448</v>
@@ -2942,7 +2945,7 @@
         <v>1.022</v>
       </c>
       <c r="L42">
-        <v>0.325</v>
+        <v>0.342</v>
       </c>
       <c r="M42">
         <v>0.80056</v>
@@ -2957,19 +2960,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -2986,7 +2989,7 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>6.1</v>
@@ -3016,16 +3019,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3039,7 +3042,7 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>0.463</v>
@@ -3054,7 +3057,7 @@
         <v>1.03</v>
       </c>
       <c r="L44">
-        <v>0.3365</v>
+        <v>0.348</v>
       </c>
       <c r="M44">
         <v>0.81424</v>
@@ -3069,19 +3072,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3095,7 +3098,7 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <v>0.463</v>
@@ -3110,7 +3113,7 @@
         <v>1.03</v>
       </c>
       <c r="L45">
-        <v>0.3365</v>
+        <v>0.348</v>
       </c>
       <c r="M45">
         <v>0.81424</v>
@@ -3125,19 +3128,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3151,7 +3154,7 @@
         <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>0.62</v>
@@ -3166,7 +3169,7 @@
         <v>1.074</v>
       </c>
       <c r="L46">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="M46">
         <v>0.8928</v>
@@ -3181,19 +3184,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3207,7 +3210,7 @@
         <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47">
         <v>0.62</v>
@@ -3222,7 +3225,7 @@
         <v>1.074</v>
       </c>
       <c r="L47">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="M47">
         <v>0.8928</v>
@@ -3237,19 +3240,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3263,13 +3266,13 @@
         <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>0.008999999999999999</v>
       </c>
       <c r="G48">
-        <v>0.0189393235973336</v>
+        <v>0.018941572557758</v>
       </c>
       <c r="H48">
         <v>0.128</v>
@@ -3278,7 +3281,7 @@
         <v>0.075</v>
       </c>
       <c r="L48">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M48">
         <v>0.0242</v>
@@ -3293,19 +3296,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3319,13 +3322,13 @@
         <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49">
         <v>0.008999999999999999</v>
       </c>
       <c r="G49">
-        <v>0.0189393235973336</v>
+        <v>0.018941572557758</v>
       </c>
       <c r="H49">
         <v>0.128</v>
@@ -3334,7 +3337,7 @@
         <v>0.075</v>
       </c>
       <c r="L49">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M49">
         <v>0.0242</v>
@@ -3349,19 +3352,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3378,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>0.51</v>
@@ -3408,16 +3411,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3434,7 +3437,7 @@
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <v>6.75</v>
@@ -3449,7 +3452,7 @@
         <v>28.6</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M51">
         <v>17.56</v>
@@ -3464,19 +3467,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3493,13 +3496,13 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>0.00383</v>
+        <v>0.0039</v>
       </c>
       <c r="G52">
-        <v>0.0044911621503161</v>
+        <v>0.0045004724676591</v>
       </c>
       <c r="H52">
         <v>0.021</v>
@@ -3508,7 +3511,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="L52">
-        <v>0.003</v>
+        <v>0.00356</v>
       </c>
       <c r="M52">
         <v>0.006</v>
@@ -3523,19 +3526,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3552,13 +3555,13 @@
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53">
-        <v>0.00383</v>
+        <v>0.0039</v>
       </c>
       <c r="G53">
-        <v>0.0044911621503161</v>
+        <v>0.0045004724676591</v>
       </c>
       <c r="H53">
         <v>0.021</v>
@@ -3567,7 +3570,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="L53">
-        <v>0.003</v>
+        <v>0.00356</v>
       </c>
       <c r="M53">
         <v>0.006</v>
@@ -3582,19 +3585,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3611,7 +3614,7 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54">
         <v>109.57</v>
@@ -3641,16 +3644,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3667,13 +3670,13 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55">
-        <v>0.00264</v>
+        <v>0.00265</v>
       </c>
       <c r="G55">
-        <v>0.0059385811682667</v>
+        <v>0.0059576087216767</v>
       </c>
       <c r="H55">
         <v>0.0501027713572412</v>
@@ -3682,13 +3685,13 @@
         <v>0.02723</v>
       </c>
       <c r="L55">
-        <v>0.00339</v>
+        <v>0.00372</v>
       </c>
       <c r="M55">
-        <v>0.008619999999999999</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="N55">
-        <v>0.0194</v>
+        <v>0.01948</v>
       </c>
       <c r="O55">
         <v>1829637.96</v>
@@ -3697,19 +3700,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3726,13 +3729,13 @@
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56">
-        <v>0.00264</v>
+        <v>0.00265</v>
       </c>
       <c r="G56">
-        <v>0.0059385811682667</v>
+        <v>0.0059576087216767</v>
       </c>
       <c r="H56">
         <v>0.0501027713572412</v>
@@ -3741,13 +3744,13 @@
         <v>0.02723</v>
       </c>
       <c r="L56">
-        <v>0.00339</v>
+        <v>0.00372</v>
       </c>
       <c r="M56">
-        <v>0.008619999999999999</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="N56">
-        <v>0.0194</v>
+        <v>0.01948</v>
       </c>
       <c r="O56">
         <v>1829637.96</v>
@@ -3756,19 +3759,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3785,7 +3788,7 @@
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>0.368</v>
@@ -3800,7 +3803,7 @@
         <v>0.9514</v>
       </c>
       <c r="L57">
-        <v>0.325</v>
+        <v>0.332</v>
       </c>
       <c r="M57">
         <v>0.79512</v>
@@ -3815,19 +3818,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3844,7 +3847,7 @@
         <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58">
         <v>0.368</v>
@@ -3859,7 +3862,7 @@
         <v>0.9514</v>
       </c>
       <c r="L58">
-        <v>0.325</v>
+        <v>0.332</v>
       </c>
       <c r="M58">
         <v>0.79512</v>
@@ -3874,19 +3877,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3903,7 +3906,7 @@
         <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59">
         <v>6.12</v>
@@ -3933,16 +3936,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -3956,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60">
         <v>0.3935</v>
@@ -3971,7 +3974,7 @@
         <v>0.9559</v>
       </c>
       <c r="L60">
-        <v>0.3365</v>
+        <v>0.342</v>
       </c>
       <c r="M60">
         <v>0.8022</v>
@@ -3986,19 +3989,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4012,7 +4015,7 @@
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61">
         <v>0.3935</v>
@@ -4027,7 +4030,7 @@
         <v>0.9559</v>
       </c>
       <c r="L61">
-        <v>0.3365</v>
+        <v>0.342</v>
       </c>
       <c r="M61">
         <v>0.8022</v>
@@ -4042,19 +4045,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4068,7 +4071,7 @@
         <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62">
         <v>0.555</v>
@@ -4083,7 +4086,7 @@
         <v>1.012</v>
       </c>
       <c r="L62">
-        <v>0.445</v>
+        <v>0.45</v>
       </c>
       <c r="M62">
         <v>0.8764</v>
@@ -4098,19 +4101,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4124,7 +4127,7 @@
         <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63">
         <v>0.555</v>
@@ -4139,7 +4142,7 @@
         <v>1.012</v>
       </c>
       <c r="L63">
-        <v>0.445</v>
+        <v>0.45</v>
       </c>
       <c r="M63">
         <v>0.8764</v>
@@ -4154,19 +4157,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4180,13 +4183,13 @@
         <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64">
         <v>0.008999999999999999</v>
       </c>
       <c r="G64">
-        <v>0.0229220822180233</v>
+        <v>0.0229243311784476</v>
       </c>
       <c r="H64">
         <v>0.2</v>
@@ -4195,7 +4198,7 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="L64">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M64">
         <v>0.03596</v>
@@ -4210,19 +4213,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4236,13 +4239,13 @@
         <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65">
         <v>0.008999999999999999</v>
       </c>
       <c r="G65">
-        <v>0.0229220822180233</v>
+        <v>0.0229243311784476</v>
       </c>
       <c r="H65">
         <v>0.2</v>
@@ -4251,7 +4254,7 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="L65">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M65">
         <v>0.03596</v>
@@ -4266,19 +4269,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4295,7 +4298,7 @@
         <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66">
         <v>0.458</v>
@@ -4325,16 +4328,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4351,7 +4354,7 @@
         <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>8</v>
@@ -4366,7 +4369,7 @@
         <v>27.4</v>
       </c>
       <c r="L67">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="M67">
         <v>15.58</v>
@@ -4381,19 +4384,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4410,13 +4413,13 @@
         <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68">
         <v>0.004</v>
       </c>
       <c r="G68">
-        <v>0.0047516279163665</v>
+        <v>0.0047604260559695</v>
       </c>
       <c r="H68">
         <v>0.014</v>
@@ -4425,7 +4428,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="L68">
-        <v>0.00301</v>
+        <v>0.00369</v>
       </c>
       <c r="M68">
         <v>0.007</v>
@@ -4440,19 +4443,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4469,13 +4472,13 @@
         <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69">
         <v>0.004</v>
       </c>
       <c r="G69">
-        <v>0.0047516279163665</v>
+        <v>0.0047604260559695</v>
       </c>
       <c r="H69">
         <v>0.014</v>
@@ -4484,7 +4487,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="L69">
-        <v>0.00301</v>
+        <v>0.00369</v>
       </c>
       <c r="M69">
         <v>0.007</v>
@@ -4499,19 +4502,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4528,7 +4531,7 @@
         <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F70">
         <v>106.86</v>
@@ -4558,16 +4561,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4584,13 +4587,13 @@
         <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F71">
-        <v>0.00316</v>
+        <v>0.00319</v>
       </c>
       <c r="G71">
-        <v>0.0061479423804353</v>
+        <v>0.0061628910836859</v>
       </c>
       <c r="H71">
         <v>0.0501027713572412</v>
@@ -4599,13 +4602,13 @@
         <v>0.02723</v>
       </c>
       <c r="L71">
-        <v>0.00425</v>
+        <v>0.00398</v>
       </c>
       <c r="M71">
-        <v>0.008619999999999999</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="N71">
-        <v>0.01398</v>
+        <v>0.01408</v>
       </c>
       <c r="O71">
         <v>1829637.96</v>
@@ -4614,19 +4617,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4643,13 +4646,13 @@
         <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F72">
-        <v>0.00316</v>
+        <v>0.00319</v>
       </c>
       <c r="G72">
-        <v>0.0061479423804353</v>
+        <v>0.0061628910836859</v>
       </c>
       <c r="H72">
         <v>0.0501027713572412</v>
@@ -4658,13 +4661,13 @@
         <v>0.02723</v>
       </c>
       <c r="L72">
-        <v>0.00425</v>
+        <v>0.00398</v>
       </c>
       <c r="M72">
-        <v>0.008619999999999999</v>
+        <v>0.008630000000000001</v>
       </c>
       <c r="N72">
-        <v>0.01398</v>
+        <v>0.01408</v>
       </c>
       <c r="O72">
         <v>1829637.96</v>
@@ -4673,19 +4676,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4702,7 +4705,7 @@
         <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F73">
         <v>0.379</v>
@@ -4717,7 +4720,7 @@
         <v>0.8496</v>
       </c>
       <c r="L73">
-        <v>0.3365</v>
+        <v>0.341</v>
       </c>
       <c r="M73">
         <v>0.78396</v>
@@ -4732,19 +4735,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4761,7 +4764,7 @@
         <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F74">
         <v>0.379</v>
@@ -4776,7 +4779,7 @@
         <v>0.8496</v>
       </c>
       <c r="L74">
-        <v>0.3365</v>
+        <v>0.341</v>
       </c>
       <c r="M74">
         <v>0.78396</v>
@@ -4791,19 +4794,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4820,7 +4823,7 @@
         <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75">
         <v>6.12</v>
@@ -4850,16 +4853,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -4873,7 +4876,7 @@
         <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76">
         <v>0.3955</v>
@@ -4888,7 +4891,7 @@
         <v>0.8638</v>
       </c>
       <c r="L76">
-        <v>0.34575</v>
+        <v>0.3495</v>
       </c>
       <c r="M76">
         <v>0.7932</v>
@@ -4903,19 +4906,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -4929,7 +4932,7 @@
         <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77">
         <v>0.3955</v>
@@ -4944,7 +4947,7 @@
         <v>0.8638</v>
       </c>
       <c r="L77">
-        <v>0.34575</v>
+        <v>0.3495</v>
       </c>
       <c r="M77">
         <v>0.7932</v>
@@ -4959,19 +4962,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -4985,7 +4988,7 @@
         <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78">
         <v>0.5649999999999999</v>
@@ -5000,7 +5003,7 @@
         <v>0.972</v>
       </c>
       <c r="L78">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M78">
         <v>0.8764</v>
@@ -5015,19 +5018,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5041,7 +5044,7 @@
         <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79">
         <v>0.5649999999999999</v>
@@ -5056,7 +5059,7 @@
         <v>0.972</v>
       </c>
       <c r="L79">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M79">
         <v>0.8764</v>
@@ -5071,19 +5074,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5097,7 +5100,7 @@
         <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F80">
         <v>0.01</v>
@@ -5112,7 +5115,7 @@
         <v>0.1204</v>
       </c>
       <c r="L80">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M80">
         <v>0.05132</v>
@@ -5127,19 +5130,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5153,7 +5156,7 @@
         <v>45</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81">
         <v>0.01</v>
@@ -5168,7 +5171,7 @@
         <v>0.1204</v>
       </c>
       <c r="L81">
-        <v>0.008500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M81">
         <v>0.05132</v>
@@ -5183,19 +5186,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5212,7 +5215,7 @@
         <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F82">
         <v>0.458</v>
@@ -5242,16 +5245,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5268,7 +5271,7 @@
         <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F83">
         <v>7.75</v>
@@ -5298,19 +5301,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5327,13 +5330,13 @@
         <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F84">
         <v>0.004</v>
       </c>
       <c r="G84">
-        <v>0.0049264041158838</v>
+        <v>0.0049332938841962</v>
       </c>
       <c r="H84">
         <v>0.019</v>
@@ -5342,7 +5345,7 @@
         <v>0.0111</v>
       </c>
       <c r="L84">
-        <v>0.00382</v>
+        <v>0.004</v>
       </c>
       <c r="M84">
         <v>0.00747</v>
@@ -5357,19 +5360,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5386,13 +5389,13 @@
         <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F85">
         <v>0.004</v>
       </c>
       <c r="G85">
-        <v>0.0049264041158838</v>
+        <v>0.0049332938841962</v>
       </c>
       <c r="H85">
         <v>0.019</v>
@@ -5401,7 +5404,7 @@
         <v>0.0111</v>
       </c>
       <c r="L85">
-        <v>0.00382</v>
+        <v>0.004</v>
       </c>
       <c r="M85">
         <v>0.00747</v>
@@ -5416,19 +5419,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5445,7 +5448,7 @@
         <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F86">
         <v>109.57</v>
@@ -5475,16 +5478,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5501,28 +5504,28 @@
         <v>46</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87">
-        <v>0.0031</v>
+        <v>0.00314</v>
       </c>
       <c r="G87">
-        <v>0.005996036292652</v>
+        <v>0.0060039546547709</v>
       </c>
       <c r="H87">
         <v>0.0501027713572412</v>
       </c>
       <c r="I87">
-        <v>0.02534</v>
+        <v>0.02537</v>
       </c>
       <c r="L87">
-        <v>0.00313</v>
+        <v>0.00356</v>
       </c>
       <c r="M87">
-        <v>0.00898</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="N87">
-        <v>0.0135</v>
+        <v>0.01355</v>
       </c>
       <c r="O87">
         <v>1829637.96</v>
@@ -5531,19 +5534,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5560,28 +5563,28 @@
         <v>46</v>
       </c>
       <c r="E88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F88">
-        <v>0.0031</v>
+        <v>0.00314</v>
       </c>
       <c r="G88">
-        <v>0.005996036292652</v>
+        <v>0.0060039546547709</v>
       </c>
       <c r="H88">
         <v>0.0501027713572412</v>
       </c>
       <c r="I88">
-        <v>0.02534</v>
+        <v>0.02537</v>
       </c>
       <c r="L88">
-        <v>0.00313</v>
+        <v>0.00356</v>
       </c>
       <c r="M88">
-        <v>0.00898</v>
+        <v>0.009039999999999999</v>
       </c>
       <c r="N88">
-        <v>0.0135</v>
+        <v>0.01355</v>
       </c>
       <c r="O88">
         <v>1829637.96</v>
@@ -5590,19 +5593,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5619,7 +5622,7 @@
         <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89">
         <v>0.379</v>
@@ -5634,7 +5637,7 @@
         <v>0.8493000000000001</v>
       </c>
       <c r="L89">
-        <v>0.3365</v>
+        <v>0.332</v>
       </c>
       <c r="M89">
         <v>0.74999</v>
@@ -5649,19 +5652,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5678,7 +5681,7 @@
         <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90">
         <v>0.379</v>
@@ -5693,7 +5696,7 @@
         <v>0.8493000000000001</v>
       </c>
       <c r="L90">
-        <v>0.3365</v>
+        <v>0.332</v>
       </c>
       <c r="M90">
         <v>0.74999</v>
@@ -5708,19 +5711,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5737,7 +5740,7 @@
         <v>46</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91">
         <v>6.258</v>
@@ -5767,16 +5770,16 @@
         <v>5505808.3</v>
       </c>
       <c r="Q91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5790,7 +5793,7 @@
         <v>46</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92">
         <v>0.389</v>
@@ -5805,7 +5808,7 @@
         <v>0.86315</v>
       </c>
       <c r="L92">
-        <v>0.34575</v>
+        <v>0.342</v>
       </c>
       <c r="M92">
         <v>0.75784</v>
@@ -5820,19 +5823,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -5846,7 +5849,7 @@
         <v>46</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F93">
         <v>0.389</v>
@@ -5861,7 +5864,7 @@
         <v>0.86315</v>
       </c>
       <c r="L93">
-        <v>0.34575</v>
+        <v>0.342</v>
       </c>
       <c r="M93">
         <v>0.75784</v>
@@ -5876,19 +5879,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -5902,7 +5905,7 @@
         <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94">
         <v>0.55</v>
@@ -5917,7 +5920,7 @@
         <v>0.9255</v>
       </c>
       <c r="L94">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="M94">
         <v>0.8441</v>
@@ -5932,19 +5935,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -5958,7 +5961,7 @@
         <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95">
         <v>0.55</v>
@@ -5973,7 +5976,7 @@
         <v>0.9255</v>
       </c>
       <c r="L95">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="M95">
         <v>0.8441</v>
@@ -5988,19 +5991,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6014,7 +6017,7 @@
         <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96">
         <v>0.011</v>
@@ -6044,19 +6047,19 @@
         <v>5505808.3</v>
       </c>
       <c r="Q96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6070,7 +6073,7 @@
         <v>46</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F97">
         <v>0.011</v>
@@ -6100,19 +6103,936 @@
         <v>5505808.3</v>
       </c>
       <c r="Q97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98">
+        <v>0.458</v>
+      </c>
+      <c r="G98">
+        <v>0.472</v>
+      </c>
+      <c r="H98">
+        <v>0.535</v>
+      </c>
+      <c r="I98">
+        <v>0.535</v>
+      </c>
+      <c r="L98">
+        <v>0.458</v>
+      </c>
+      <c r="M98">
+        <v>0.52625</v>
+      </c>
+      <c r="N98">
+        <v>0.535</v>
+      </c>
+      <c r="O98">
+        <v>1829637.96</v>
+      </c>
+      <c r="P98">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>49</v>
+      </c>
+      <c r="R98" t="s">
+        <v>50</v>
+      </c>
+      <c r="S98" t="s">
+        <v>51</v>
+      </c>
+      <c r="T98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99">
+        <v>8.83</v>
+      </c>
+      <c r="H99">
+        <v>39.5</v>
+      </c>
+      <c r="I99">
+        <v>30.25</v>
+      </c>
+      <c r="L99">
+        <v>6.5</v>
+      </c>
+      <c r="M99">
+        <v>14.05</v>
+      </c>
+      <c r="N99">
+        <v>27.1</v>
+      </c>
+      <c r="O99">
+        <v>1829637.96</v>
+      </c>
+      <c r="P99">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R99" t="s">
+        <v>50</v>
+      </c>
+      <c r="S99" t="s">
+        <v>51</v>
+      </c>
+      <c r="T99" t="s">
+        <v>52</v>
+      </c>
+      <c r="U99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100">
+        <v>0.004</v>
+      </c>
+      <c r="G100">
+        <v>0.004859649122807</v>
+      </c>
+      <c r="H100">
+        <v>0.019</v>
+      </c>
+      <c r="I100">
+        <v>0.0113</v>
+      </c>
+      <c r="L100">
+        <v>0.003</v>
+      </c>
+      <c r="M100">
+        <v>0.00781</v>
+      </c>
+      <c r="N100">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O100">
+        <v>1829637.96</v>
+      </c>
+      <c r="P100">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>49</v>
+      </c>
+      <c r="R100" t="s">
+        <v>50</v>
+      </c>
+      <c r="S100" t="s">
+        <v>51</v>
+      </c>
+      <c r="T100" t="s">
+        <v>52</v>
+      </c>
+      <c r="U100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101">
+        <v>0.004</v>
+      </c>
+      <c r="G101">
+        <v>0.004859649122807</v>
+      </c>
+      <c r="H101">
+        <v>0.019</v>
+      </c>
+      <c r="I101">
+        <v>0.0113</v>
+      </c>
+      <c r="L101">
+        <v>0.003</v>
+      </c>
+      <c r="M101">
+        <v>0.00781</v>
+      </c>
+      <c r="N101">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O101">
+        <v>1829637.96</v>
+      </c>
+      <c r="P101">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>49</v>
+      </c>
+      <c r="R101" t="s">
+        <v>50</v>
+      </c>
+      <c r="S101" t="s">
+        <v>51</v>
+      </c>
+      <c r="T101" t="s">
+        <v>52</v>
+      </c>
+      <c r="U101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102">
+        <v>103</v>
+      </c>
+      <c r="G102">
+        <v>105.914</v>
+      </c>
+      <c r="H102">
+        <v>115</v>
+      </c>
+      <c r="I102">
+        <v>115</v>
+      </c>
+      <c r="L102">
+        <v>103</v>
+      </c>
+      <c r="M102">
+        <v>113.0995</v>
+      </c>
+      <c r="N102">
+        <v>115</v>
+      </c>
+      <c r="O102">
+        <v>1829637.96</v>
+      </c>
+      <c r="P102">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>49</v>
+      </c>
+      <c r="R102" t="s">
+        <v>50</v>
+      </c>
+      <c r="S102" t="s">
+        <v>51</v>
+      </c>
+      <c r="T102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103">
+        <v>0.00257</v>
+      </c>
+      <c r="G103">
+        <v>0.0066472058619937</v>
+      </c>
+      <c r="H103">
+        <v>0.118933064398858</v>
+      </c>
+      <c r="I103">
+        <v>0.02407</v>
+      </c>
+      <c r="L103">
+        <v>0.00259</v>
+      </c>
+      <c r="M103">
+        <v>0.008330000000000001</v>
+      </c>
+      <c r="N103">
+        <v>0.01232</v>
+      </c>
+      <c r="O103">
+        <v>1829637.96</v>
+      </c>
+      <c r="P103">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>49</v>
+      </c>
+      <c r="R103" t="s">
+        <v>50</v>
+      </c>
+      <c r="S103" t="s">
+        <v>51</v>
+      </c>
+      <c r="T103" t="s">
+        <v>52</v>
+      </c>
+      <c r="U103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104">
+        <v>0.00257</v>
+      </c>
+      <c r="G104">
+        <v>0.0066472058619937</v>
+      </c>
+      <c r="H104">
+        <v>0.118933064398858</v>
+      </c>
+      <c r="I104">
+        <v>0.02407</v>
+      </c>
+      <c r="L104">
+        <v>0.00259</v>
+      </c>
+      <c r="M104">
+        <v>0.008330000000000001</v>
+      </c>
+      <c r="N104">
+        <v>0.01232</v>
+      </c>
+      <c r="O104">
+        <v>1829637.96</v>
+      </c>
+      <c r="P104">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>49</v>
+      </c>
+      <c r="R104" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" t="s">
+        <v>51</v>
+      </c>
+      <c r="T104" t="s">
+        <v>52</v>
+      </c>
+      <c r="U104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105">
+        <v>0.347</v>
+      </c>
+      <c r="G105">
+        <v>0.413175438596491</v>
+      </c>
+      <c r="H105">
+        <v>0.961</v>
+      </c>
+      <c r="I105">
+        <v>0.84465</v>
+      </c>
+      <c r="L105">
+        <v>0.341</v>
+      </c>
+      <c r="M105">
+        <v>0.70253</v>
+      </c>
+      <c r="N105">
+        <v>0.80694</v>
+      </c>
+      <c r="O105">
+        <v>1829637.96</v>
+      </c>
+      <c r="P105">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>49</v>
+      </c>
+      <c r="R105" t="s">
+        <v>50</v>
+      </c>
+      <c r="S105" t="s">
+        <v>51</v>
+      </c>
+      <c r="T105" t="s">
+        <v>52</v>
+      </c>
+      <c r="U105" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106">
+        <v>0.347</v>
+      </c>
+      <c r="G106">
+        <v>0.413175438596491</v>
+      </c>
+      <c r="H106">
+        <v>0.961</v>
+      </c>
+      <c r="I106">
+        <v>0.84465</v>
+      </c>
+      <c r="L106">
+        <v>0.341</v>
+      </c>
+      <c r="M106">
+        <v>0.70253</v>
+      </c>
+      <c r="N106">
+        <v>0.80694</v>
+      </c>
+      <c r="O106">
+        <v>1829637.96</v>
+      </c>
+      <c r="P106">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>49</v>
+      </c>
+      <c r="R106" t="s">
+        <v>50</v>
+      </c>
+      <c r="S106" t="s">
+        <v>51</v>
+      </c>
+      <c r="T106" t="s">
+        <v>52</v>
+      </c>
+      <c r="U106" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107">
+        <v>6.258</v>
+      </c>
+      <c r="G107">
+        <v>6.329</v>
+      </c>
+      <c r="H107">
+        <v>6.79</v>
+      </c>
+      <c r="I107">
+        <v>6.79</v>
+      </c>
+      <c r="L107">
+        <v>6.258</v>
+      </c>
+      <c r="M107">
+        <v>6.6955</v>
+      </c>
+      <c r="N107">
+        <v>6.79</v>
+      </c>
+      <c r="O107">
+        <v>1829637.96</v>
+      </c>
+      <c r="P107">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>49</v>
+      </c>
+      <c r="R107" t="s">
+        <v>50</v>
+      </c>
+      <c r="S107" t="s">
+        <v>51</v>
+      </c>
+      <c r="T107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108">
+        <v>0.38</v>
+      </c>
+      <c r="G108">
+        <v>0.426947368421053</v>
+      </c>
+      <c r="H108">
+        <v>0.9645</v>
+      </c>
+      <c r="I108">
+        <v>0.8539</v>
+      </c>
+      <c r="L108">
+        <v>0.3495</v>
+      </c>
+      <c r="M108">
+        <v>0.70953</v>
+      </c>
+      <c r="N108">
+        <v>0.81724</v>
+      </c>
+      <c r="O108">
+        <v>1829637.96</v>
+      </c>
+      <c r="P108">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>49</v>
+      </c>
+      <c r="R108" t="s">
+        <v>50</v>
+      </c>
+      <c r="S108" t="s">
+        <v>51</v>
+      </c>
+      <c r="T108" t="s">
+        <v>52</v>
+      </c>
+      <c r="U108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109">
+        <v>0.38</v>
+      </c>
+      <c r="G109">
+        <v>0.426947368421053</v>
+      </c>
+      <c r="H109">
+        <v>0.9645</v>
+      </c>
+      <c r="I109">
+        <v>0.8539</v>
+      </c>
+      <c r="L109">
+        <v>0.3495</v>
+      </c>
+      <c r="M109">
+        <v>0.70953</v>
+      </c>
+      <c r="N109">
+        <v>0.81724</v>
+      </c>
+      <c r="O109">
+        <v>1829637.96</v>
+      </c>
+      <c r="P109">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>49</v>
+      </c>
+      <c r="R109" t="s">
+        <v>50</v>
+      </c>
+      <c r="S109" t="s">
+        <v>51</v>
+      </c>
+      <c r="T109" t="s">
+        <v>52</v>
+      </c>
+      <c r="U109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110">
+        <v>0.55</v>
+      </c>
+      <c r="G110">
+        <v>0.5845614035087719</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0.9165</v>
+      </c>
+      <c r="L110">
+        <v>0.51</v>
+      </c>
+      <c r="M110">
+        <v>0.8081</v>
+      </c>
+      <c r="N110">
+        <v>0.9</v>
+      </c>
+      <c r="O110">
+        <v>1829637.96</v>
+      </c>
+      <c r="P110">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>49</v>
+      </c>
+      <c r="R110" t="s">
+        <v>50</v>
+      </c>
+      <c r="S110" t="s">
+        <v>51</v>
+      </c>
+      <c r="T110" t="s">
+        <v>52</v>
+      </c>
+      <c r="U110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111">
+        <v>0.55</v>
+      </c>
+      <c r="G111">
+        <v>0.5845614035087719</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0.9165</v>
+      </c>
+      <c r="L111">
+        <v>0.51</v>
+      </c>
+      <c r="M111">
+        <v>0.8081</v>
+      </c>
+      <c r="N111">
+        <v>0.9</v>
+      </c>
+      <c r="O111">
+        <v>1829637.96</v>
+      </c>
+      <c r="P111">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>49</v>
+      </c>
+      <c r="R111" t="s">
+        <v>50</v>
+      </c>
+      <c r="S111" t="s">
+        <v>51</v>
+      </c>
+      <c r="T111" t="s">
+        <v>52</v>
+      </c>
+      <c r="U111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112">
+        <v>0.012</v>
+      </c>
+      <c r="G112">
+        <v>0.0299649122807018</v>
+      </c>
+      <c r="H112">
+        <v>0.272</v>
+      </c>
+      <c r="I112">
+        <v>0.10795</v>
+      </c>
+      <c r="L112">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M112">
+        <v>0.04262</v>
+      </c>
+      <c r="N112">
+        <v>0.09116</v>
+      </c>
+      <c r="O112">
+        <v>1829637.96</v>
+      </c>
+      <c r="P112">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>49</v>
+      </c>
+      <c r="R112" t="s">
+        <v>50</v>
+      </c>
+      <c r="S112" t="s">
+        <v>51</v>
+      </c>
+      <c r="T112" t="s">
+        <v>52</v>
+      </c>
+      <c r="U112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113">
+        <v>0.012</v>
+      </c>
+      <c r="G113">
+        <v>0.0299649122807018</v>
+      </c>
+      <c r="H113">
+        <v>0.272</v>
+      </c>
+      <c r="I113">
+        <v>0.10795</v>
+      </c>
+      <c r="L113">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M113">
+        <v>0.04262</v>
+      </c>
+      <c r="N113">
+        <v>0.09116</v>
+      </c>
+      <c r="O113">
+        <v>1829637.96</v>
+      </c>
+      <c r="P113">
+        <v>5505808.3</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>49</v>
+      </c>
+      <c r="R113" t="s">
+        <v>50</v>
+      </c>
+      <c r="S113" t="s">
+        <v>51</v>
+      </c>
+      <c r="T113" t="s">
+        <v>52</v>
+      </c>
+      <c r="U113" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
